--- a/경로설정.xlsx
+++ b/경로설정.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khworkspace\Final_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3154032-0BF6-42E3-B3AB-882310964354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="2352" windowWidth="17280" windowHeight="8880" xr2:uid="{94EDA4A4-9EC8-4C0E-903C-F507F8547EEB}"/>
+    <workbookView xWindow="4152" yWindow="2352" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">메인페이지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,14 +180,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>나의 적립금 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동목록(기부,봉사,리뷰,참여한 이벤트) 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 문의사항 목록, 상세조회, 문의사항 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 등급혜택 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/Giboo&amp;Take/myPage/rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/myPage/alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 알림 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,7 +624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -654,7 +676,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -848,18 +870,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7F1D0-96E3-4B6D-BF08-3104C44820C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -867,7 +889,7 @@
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="14.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -1020,7 +1042,9 @@
       <c r="C11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1031,7 +1055,9 @@
       <c r="C12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1042,7 +1068,9 @@
       <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1062,18 +1090,26 @@
         <v>30</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">

--- a/경로설정.xlsx
+++ b/경로설정.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khworkspace\Final_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB45ED-4D09-42F6-ACC1-1CDC4802AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="2352" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="4152" yWindow="2352" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t xml:space="preserve">메인페이지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,22 +99,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Giboo&amp;Take / board / notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Giboo&amp;Take / board / notice / write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take / board / notice / edit?[공지NO]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마이페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,13 +188,25 @@
   </si>
   <si>
     <t>나의 알림 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take / notice /noticeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take / notice / write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take / notice / edit?[공지NO]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -870,18 +861,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -896,16 +887,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="7"/>
     </row>
@@ -917,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -932,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="14"/>
     </row>
@@ -947,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -959,13 +950,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="14"/>
     </row>
@@ -974,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="14"/>
     </row>
@@ -989,13 +980,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -1004,10 +995,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="14"/>
@@ -1015,10 +1006,10 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="14"/>
@@ -1026,10 +1017,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="14"/>
@@ -1037,49 +1028,49 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="14"/>
@@ -1087,13 +1078,13 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="14"/>
     </row>
@@ -1102,13 +1093,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" s="14"/>
     </row>

--- a/경로설정.xlsx
+++ b/경로설정.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khworkspace\Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB45ED-4D09-42F6-ACC1-1CDC4802AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A606120C-1CCA-4D5B-BBF2-D79FCF7A9F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="2352" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$37</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t xml:space="preserve">메인페이지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +203,230 @@
   </si>
   <si>
     <t>/Giboo&amp;Take / notice / edit?[공지NO]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/volunteerStory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/volunteerDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/volunteerWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donate/donateStory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donate/donateDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donate/donateWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 상세정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 작성 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 상세정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 작성 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 공지사항 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대 1 채팅상담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 / 봉사 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 찾는 질문 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/notice/(공지사항 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/volunteerDonate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대 1 채팅상담 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 / 봉사 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 찾는 질문 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,18 +468,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -291,76 +512,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -380,14 +534,91 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -401,12 +632,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -416,70 +645,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -488,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,20 +667,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,41 +697,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -667,7 +824,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -869,290 +1026,921 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="14.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/경로설정.xlsx
+++ b/경로설정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A606120C-1CCA-4D5B-BBF2-D79FCF7A9F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715C098-4F0E-4FBD-B51D-38A7EB86D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,22 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Giboo&amp;Take/donate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/donate/donateStory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/donate/donateDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/donate/donateWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>봉사 메인페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,6 +411,22 @@
   </si>
   <si>
     <t xml:space="preserve"> 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/donateStory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/donateDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/donateWrite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -1174,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -1206,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
@@ -1240,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
@@ -1258,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>25</v>
@@ -1276,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -1292,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -1310,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>37</v>
@@ -1337,7 +1337,7 @@
         <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -1373,7 +1373,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -1391,7 +1391,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -1406,10 +1406,10 @@
         <v>51</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F21" s="17"/>
     </row>
@@ -1424,10 +1424,10 @@
         <v>52</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F22" s="17"/>
     </row>
@@ -1442,10 +1442,10 @@
         <v>53</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F23" s="17"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>54</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F24" s="17"/>
     </row>
@@ -1472,16 +1472,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F25" s="17"/>
     </row>
@@ -1490,16 +1490,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F26" s="17"/>
     </row>
@@ -1508,16 +1508,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="D27" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F27" s="17"/>
     </row>
@@ -1526,16 +1526,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F28" s="17"/>
     </row>
@@ -1544,16 +1544,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F29" s="17"/>
     </row>
@@ -1562,16 +1562,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F30" s="17"/>
     </row>
@@ -1580,16 +1580,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F31" s="17"/>
     </row>
@@ -1598,16 +1598,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F32" s="17"/>
     </row>
@@ -1616,16 +1616,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F33" s="17"/>
     </row>

--- a/경로설정.xlsx
+++ b/경로설정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715C098-4F0E-4FBD-B51D-38A7EB86D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E807721-BB84-4409-82B4-B03F891D8CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$64</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -250,22 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Giboo&amp;Take/volunteer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/volunteer/volunteerStory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/volunteer/volunteerDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/volunteer/volunteerWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>봉사 메인페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Giboo&amp;Take/admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Giboo&amp;Take/admin/member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Giboo&amp;Take/admin/volunteerDonate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Giboo&amp;Take/admin/event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,19 +390,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Giboo&amp;Take/donation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/donation/donateStory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/donation/donateDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Giboo&amp;Take/donation/donateWrite</t>
+    <t>/Giboo&amp;Take/admin/volunteerDonation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -1174,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -1206,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
@@ -1240,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
@@ -1258,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>25</v>
@@ -1276,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -1292,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -1310,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>37</v>
@@ -1334,10 +1334,10 @@
         <v>44</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -1352,7 +1352,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>45</v>
@@ -1370,10 +1370,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -1388,10 +1388,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -1406,10 +1406,10 @@
         <v>51</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="17"/>
     </row>
@@ -1424,10 +1424,10 @@
         <v>52</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F22" s="17"/>
     </row>
@@ -1442,10 +1442,10 @@
         <v>53</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F23" s="17"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>54</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F24" s="17"/>
     </row>
@@ -1472,16 +1472,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F25" s="17"/>
     </row>
@@ -1490,16 +1490,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F26" s="17"/>
     </row>
@@ -1508,16 +1508,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="D27" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F27" s="17"/>
     </row>
@@ -1526,16 +1526,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F28" s="17"/>
     </row>
@@ -1544,16 +1544,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F29" s="17"/>
     </row>
@@ -1562,16 +1562,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F30" s="17"/>
     </row>
@@ -1580,16 +1580,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F31" s="17"/>
     </row>
@@ -1598,16 +1598,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F32" s="17"/>
     </row>
@@ -1616,16 +1616,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F33" s="17"/>
     </row>
@@ -1940,7 +1940,7 @@
       <c r="F64" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:B64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/경로설정.xlsx
+++ b/경로설정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E807721-BB84-4409-82B4-B03F891D8CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE14AD0-80A6-4309-B785-373AFFF9A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-620" yWindow="570" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t xml:space="preserve">메인페이지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,10 @@
   </si>
   <si>
     <t>/Giboo&amp;Take/donation/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1633,7 +1637,9 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="15"/>

--- a/경로설정.xlsx
+++ b/경로설정.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khworkspace\Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB45ED-4D09-42F6-ACC1-1CDC4802AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715C098-4F0E-4FBD-B51D-38A7EB86D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="2352" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$37</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t xml:space="preserve">메인페이지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +203,230 @@
   </si>
   <si>
     <t>/Giboo&amp;Take / notice / edit?[공지NO]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/volunteerStory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/volunteerDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/volunteer/volunteerWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 상세정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사 작성 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 상세정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 작성 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 공지사항 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대 1 채팅상담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 / 봉사 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 찾는 질문 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/notice/(공지사항 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/volunteerDonate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/admin/faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대 1 채팅상담 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 / 봉사 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 찾는 질문 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/donateStory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/donateDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Giboo&amp;Take/donation/donateWrite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,18 +468,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -291,76 +512,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -380,14 +534,91 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -401,12 +632,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -416,70 +645,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -488,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,20 +667,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,41 +697,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -667,7 +824,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -869,290 +1026,921 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="14.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
